--- a/data analysis/Exercise done/5_Distributions/Heights Of Men.xlsx
+++ b/data analysis/Exercise done/5_Distributions/Heights Of Men.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmullen/Dropbox/data analysis master/Exercises/5_Distributions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheagraw/Google Drive/training/Data Analysis/Exercise done/5_Distributions/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89959AAF-C6BA-974C-87A8-DC51D69DD33E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="520" windowWidth="27340" windowHeight="15440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Frequency Distribution" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Data on the height of men in the United States</t>
   </si>
@@ -41,20 +42,32 @@
     <t>AVERAGE</t>
   </si>
   <si>
-    <t>Std Dev</t>
+    <t>STD DEV</t>
+  </si>
+  <si>
+    <t>Draw Frequency Plot</t>
   </si>
   <si>
     <t>Bins</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,13 +75,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,7 +113,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -99,12 +126,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -117,67 +147,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000">
-                <a:solidFill>
-                  <a:srgbClr val="002060"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Heights of Men in the US</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -185,8 +155,19 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Frequency Distribution'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -197,183 +178,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$I$11:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$11:$J$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>272.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>698.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>973.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1163.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1297.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1298.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1111.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>912.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>670.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>431.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>269.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="17"/>
-        <c:overlap val="-27"/>
-        <c:axId val="496224864"/>
-        <c:axId val="496227344"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="496224864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -381,43 +205,323 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Height in inches</a:t>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.47317503280839895"/>
+                  <c:y val="-0.61061273967260121"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Frequency Distribution'!$I$7:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Frequency Distribution'!$J$7:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1AA-0D43-BA61-BA6361BC166D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="270972544"/>
+        <c:axId val="270974224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="270972544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -440,7 +544,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -455,7 +559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496227344"/>
+        <c:crossAx val="270974224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -463,26 +567,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496227344"/>
+        <c:axId val="270974224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -498,7 +589,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -513,7 +604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496224864"/>
+        <c:crossAx val="270972544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -525,6 +616,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -563,12 +685,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1109,20 +1228,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7B802A-9FA8-CD4E-A336-C4A8A0DAD722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1402,11 +1527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:J31"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1463,13 +1588,6 @@
         <f>_xlfn.STDEV.P(B4:B10003)</f>
         <v>3.0120647731248842</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="array" ref="J5:J32">FREQUENCY(B4:B10003,I5:I32)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1478,11 +1596,18 @@
       <c r="B6" s="1">
         <v>72</v>
       </c>
-      <c r="I6">
-        <v>55</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <f>MIN(B4:B10003)</f>
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1492,10 +1617,18 @@
       <c r="B7" s="1">
         <v>66.900000000000006</v>
       </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <f>MAX(B4:B10003)</f>
+        <v>81.7</v>
+      </c>
       <c r="I7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J7">
+        <f t="array" ref="J7:J38">FREQUENCY(B4:B10003,I7:I38)</f>
         <v>0</v>
       </c>
     </row>
@@ -1507,7 +1640,7 @@
         <v>67.2</v>
       </c>
       <c r="I8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1521,7 +1654,7 @@
         <v>73.2</v>
       </c>
       <c r="I9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1535,7 +1668,7 @@
         <v>69.599999999999994</v>
       </c>
       <c r="I10">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1549,10 +1682,10 @@
         <v>70.3</v>
       </c>
       <c r="I11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1563,10 +1696,10 @@
         <v>72</v>
       </c>
       <c r="I12">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1577,10 +1710,10 @@
         <v>74.2</v>
       </c>
       <c r="I13">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J13">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1591,10 +1724,10 @@
         <v>67.2</v>
       </c>
       <c r="I14">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J14">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1605,10 +1738,10 @@
         <v>70.8</v>
       </c>
       <c r="I15">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J15">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1619,10 +1752,10 @@
         <v>70.400000000000006</v>
       </c>
       <c r="I16">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J16">
-        <v>272</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1633,10 +1766,10 @@
         <v>69.8</v>
       </c>
       <c r="I17">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J17">
-        <v>470</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1647,10 +1780,10 @@
         <v>69.5</v>
       </c>
       <c r="I18">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J18">
-        <v>698</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1661,10 +1794,10 @@
         <v>73.7</v>
       </c>
       <c r="I19">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J19">
-        <v>973</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1675,10 +1808,10 @@
         <v>69.7</v>
       </c>
       <c r="I20">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J20">
-        <v>1163</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1689,10 +1822,10 @@
         <v>67.2</v>
       </c>
       <c r="I21">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J21">
-        <v>1297</v>
+        <v>973</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1703,10 +1836,10 @@
         <v>66.8</v>
       </c>
       <c r="I22">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J22">
-        <v>1298</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1717,10 +1850,10 @@
         <v>71.3</v>
       </c>
       <c r="I23">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J23">
-        <v>1111</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1731,10 +1864,10 @@
         <v>66</v>
       </c>
       <c r="I24">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J24">
-        <v>912</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1745,10 +1878,10 @@
         <v>73.599999999999994</v>
       </c>
       <c r="I25">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J25">
-        <v>670</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1759,10 +1892,10 @@
         <v>69</v>
       </c>
       <c r="I26">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J26">
-        <v>431</v>
+        <v>912</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1773,10 +1906,10 @@
         <v>65.2</v>
       </c>
       <c r="I27">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J27">
-        <v>269</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1787,10 +1920,10 @@
         <v>72.599999999999994</v>
       </c>
       <c r="I28">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J28">
-        <v>117</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1801,10 +1934,10 @@
         <v>67.2</v>
       </c>
       <c r="I29">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J29">
-        <v>50</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1815,10 +1948,10 @@
         <v>70.900000000000006</v>
       </c>
       <c r="I30">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J30">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1829,10 +1962,10 @@
         <v>70.8</v>
       </c>
       <c r="I31">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1843,61 +1976,97 @@
         <v>72.599999999999994</v>
       </c>
       <c r="I32">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>71.099999999999994</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>80</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" s="1">
         <v>67.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>81</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" s="1">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>82</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" s="1">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>83</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>84</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="1">
         <v>69.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>85</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1905,7 +2074,7 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1913,7 +2082,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1921,7 +2090,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1929,7 +2098,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1937,7 +2106,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1945,7 +2114,7 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1953,7 +2122,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1961,7 +2130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1969,7 +2138,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -81622,6 +81791,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>